--- a/Ligas/Primera_A_2025.xlsx
+++ b/Ligas/Primera_A_2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raque\Desktop\ligas_datas\rockongo_web\Ligas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376E1E23-6F90-49AC-AF8E-5BEDD4CC631D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE1BCA1-2B2F-4589-B6A5-6C8CF2C0ABA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="140">
   <si>
     <t>Fecha</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>Promedio Últimos 5</t>
+  </si>
+  <si>
+    <t>Empate</t>
+  </si>
+  <si>
+    <t>Resultado</t>
   </si>
 </sst>
 </file>
@@ -830,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,7 +863,7 @@
     <col min="18" max="18" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -912,8 +918,11 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -968,8 +977,11 @@
       <c r="R2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1024,8 +1036,11 @@
       <c r="R3" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -1080,8 +1095,11 @@
       <c r="R4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1136,8 +1154,11 @@
       <c r="R5" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1192,8 +1213,11 @@
       <c r="R6" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1248,8 +1272,11 @@
       <c r="R7" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
@@ -1304,8 +1331,11 @@
       <c r="R8" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
@@ -1360,8 +1390,11 @@
       <c r="R9" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1416,8 +1449,11 @@
       <c r="R10" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1472,8 +1508,11 @@
       <c r="R11" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>58</v>
       </c>
@@ -1528,8 +1567,11 @@
       <c r="R12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>58</v>
       </c>
@@ -1584,8 +1626,11 @@
       <c r="R13" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>59</v>
       </c>
@@ -1640,8 +1685,11 @@
       <c r="R14" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -1696,8 +1744,11 @@
       <c r="R15" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>59</v>
       </c>
@@ -1752,8 +1803,11 @@
       <c r="R16" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -1808,8 +1862,11 @@
       <c r="R17" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>67</v>
       </c>
@@ -1864,8 +1921,11 @@
       <c r="R18" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>68</v>
       </c>
@@ -1920,8 +1980,11 @@
       <c r="R19" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>68</v>
       </c>
@@ -1976,8 +2039,11 @@
       <c r="R20" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2032,8 +2098,11 @@
       <c r="R21" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -2088,8 +2157,11 @@
       <c r="R22" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
@@ -2144,8 +2216,11 @@
       <c r="R23" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>75</v>
       </c>
@@ -2200,8 +2275,11 @@
       <c r="R24" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>75</v>
       </c>
@@ -2256,8 +2334,11 @@
       <c r="R25" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
@@ -2312,8 +2393,11 @@
       <c r="R26" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>78</v>
       </c>
@@ -2368,8 +2452,11 @@
       <c r="R27" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>78</v>
       </c>
@@ -2424,8 +2511,11 @@
       <c r="R28" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
@@ -2480,8 +2570,11 @@
       <c r="R29" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -2536,8 +2629,11 @@
       <c r="R30" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S30" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -2592,8 +2688,11 @@
       <c r="R31" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
@@ -2648,8 +2747,11 @@
       <c r="R32" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>82</v>
       </c>
@@ -2704,8 +2806,11 @@
       <c r="R33" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>82</v>
       </c>
@@ -2760,8 +2865,11 @@
       <c r="R34" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>85</v>
       </c>
@@ -2816,8 +2924,11 @@
       <c r="R35" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>86</v>
       </c>
@@ -2872,8 +2983,11 @@
       <c r="R36" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>86</v>
       </c>
@@ -2928,8 +3042,11 @@
       <c r="R37" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -2984,8 +3101,11 @@
       <c r="R38" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S38" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>86</v>
       </c>
@@ -3040,8 +3160,11 @@
       <c r="R39" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>89</v>
       </c>
@@ -3096,8 +3219,11 @@
       <c r="R40" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>89</v>
       </c>
@@ -3152,8 +3278,11 @@
       <c r="R41" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>90</v>
       </c>
@@ -3208,8 +3337,11 @@
       <c r="R42" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
@@ -3264,8 +3396,11 @@
       <c r="R43" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>91</v>
       </c>
@@ -3320,8 +3455,11 @@
       <c r="R44" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>92</v>
       </c>
@@ -3376,8 +3514,11 @@
       <c r="R45" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>92</v>
       </c>
@@ -3432,8 +3573,11 @@
       <c r="R46" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -3488,8 +3632,11 @@
       <c r="R47" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -3544,8 +3691,11 @@
       <c r="R48" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
@@ -3600,8 +3750,11 @@
       <c r="R49" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>94</v>
       </c>
@@ -3656,8 +3809,11 @@
       <c r="R50" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
@@ -3712,8 +3868,11 @@
       <c r="R51" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>95</v>
       </c>
@@ -3768,8 +3927,11 @@
       <c r="R52" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>95</v>
       </c>
@@ -3824,8 +3986,11 @@
       <c r="R53" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>96</v>
       </c>
@@ -3880,8 +4045,11 @@
       <c r="R54" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
@@ -3936,8 +4104,11 @@
       <c r="R55" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>98</v>
       </c>
@@ -3992,8 +4163,11 @@
       <c r="R56" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>99</v>
       </c>
@@ -4048,8 +4222,11 @@
       <c r="R57" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>99</v>
       </c>
@@ -4104,8 +4281,11 @@
       <c r="R58" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>100</v>
       </c>
@@ -4160,8 +4340,11 @@
       <c r="R59" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S59" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>100</v>
       </c>
@@ -4216,8 +4399,11 @@
       <c r="R60" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>101</v>
       </c>
@@ -4272,8 +4458,11 @@
       <c r="R61" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>102</v>
       </c>
@@ -4328,8 +4517,11 @@
       <c r="R62" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>102</v>
       </c>
@@ -4384,8 +4576,11 @@
       <c r="R63" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>103</v>
       </c>
@@ -4440,8 +4635,11 @@
       <c r="R64" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>103</v>
       </c>
@@ -4496,8 +4694,11 @@
       <c r="R65" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S65" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>103</v>
       </c>
@@ -4552,8 +4753,11 @@
       <c r="R66" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S66" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>104</v>
       </c>
@@ -4608,8 +4812,11 @@
       <c r="R67" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>104</v>
       </c>
@@ -4664,8 +4871,11 @@
       <c r="R68" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>104</v>
       </c>
@@ -4720,8 +4930,11 @@
       <c r="R69" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S69" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>105</v>
       </c>
@@ -4776,8 +4989,11 @@
       <c r="R70" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S70" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>106</v>
       </c>
@@ -4832,8 +5048,11 @@
       <c r="R71" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>106</v>
       </c>
@@ -4888,8 +5107,11 @@
       <c r="R72" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>106</v>
       </c>
@@ -4944,8 +5166,11 @@
       <c r="R73" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S73" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>106</v>
       </c>
@@ -5000,8 +5225,11 @@
       <c r="R74" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>107</v>
       </c>
@@ -5056,8 +5284,11 @@
       <c r="R75" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S75" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>107</v>
       </c>
@@ -5112,8 +5343,11 @@
       <c r="R76" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S76" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>108</v>
       </c>
@@ -5168,8 +5402,11 @@
       <c r="R77" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S77" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>109</v>
       </c>
@@ -5224,8 +5461,11 @@
       <c r="R78" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>109</v>
       </c>
@@ -5280,8 +5520,11 @@
       <c r="R79" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S79" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>109</v>
       </c>
@@ -5336,8 +5579,11 @@
       <c r="R80" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S80" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>110</v>
       </c>
@@ -5392,8 +5638,11 @@
       <c r="R81" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>110</v>
       </c>
@@ -5448,8 +5697,11 @@
       <c r="R82" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S82" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>111</v>
       </c>
@@ -5504,8 +5756,11 @@
       <c r="R83" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>111</v>
       </c>
@@ -5560,8 +5815,11 @@
       <c r="R84" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>112</v>
       </c>
@@ -5616,8 +5874,11 @@
       <c r="R85" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
@@ -5672,8 +5933,11 @@
       <c r="R86" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S86" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>114</v>
       </c>
@@ -5728,8 +5992,11 @@
       <c r="R87" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>114</v>
       </c>
@@ -5784,8 +6051,11 @@
       <c r="R88" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S88" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>115</v>
       </c>
@@ -5840,8 +6110,11 @@
       <c r="R89" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>115</v>
       </c>
@@ -5896,8 +6169,11 @@
       <c r="R90" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>115</v>
       </c>
@@ -5952,8 +6228,11 @@
       <c r="R91" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>116</v>
       </c>
@@ -6008,8 +6287,11 @@
       <c r="R92" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>116</v>
       </c>
@@ -6064,8 +6346,11 @@
       <c r="R93" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>117</v>
       </c>
@@ -6120,8 +6405,11 @@
       <c r="R94" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>117</v>
       </c>
@@ -6176,8 +6464,11 @@
       <c r="R95" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>117</v>
       </c>
@@ -6232,8 +6523,11 @@
       <c r="R96" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S96" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>120</v>
       </c>
@@ -6288,8 +6582,11 @@
       <c r="R97" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>120</v>
       </c>
@@ -6344,8 +6641,11 @@
       <c r="R98" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S98" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>120</v>
       </c>
@@ -6400,8 +6700,11 @@
       <c r="R99" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>121</v>
       </c>
@@ -6456,8 +6759,11 @@
       <c r="R100" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S100" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>122</v>
       </c>
@@ -6512,8 +6818,11 @@
       <c r="R101" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>123</v>
       </c>
@@ -6568,8 +6877,11 @@
       <c r="R102" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S102" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>126</v>
       </c>
@@ -6624,8 +6936,11 @@
       <c r="R103" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>126</v>
       </c>
@@ -6680,8 +6995,11 @@
       <c r="R104" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>126</v>
       </c>
@@ -6736,8 +7054,11 @@
       <c r="R105" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S105" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>127</v>
       </c>
@@ -6792,8 +7113,11 @@
       <c r="R106" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S106" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>127</v>
       </c>
@@ -6848,8 +7172,11 @@
       <c r="R107" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S107" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>128</v>
       </c>
@@ -6904,8 +7231,11 @@
       <c r="R108" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>131</v>
       </c>
@@ -6960,8 +7290,11 @@
       <c r="R109" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>131</v>
       </c>
@@ -7016,8 +7349,11 @@
       <c r="R110" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S110" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>132</v>
       </c>
@@ -7072,8 +7408,11 @@
       <c r="R111" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S111" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>133</v>
       </c>
@@ -7128,8 +7467,11 @@
       <c r="R112" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>133</v>
       </c>
@@ -7184,8 +7526,11 @@
       <c r="R113" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S113" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>133</v>
       </c>
@@ -7240,8 +7585,11 @@
       <c r="R114" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>134</v>
       </c>
@@ -7296,8 +7644,11 @@
       <c r="R115" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>134</v>
       </c>
@@ -7352,8 +7703,11 @@
       <c r="R116" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S116" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>134</v>
       </c>
@@ -7408,8 +7762,11 @@
       <c r="R117" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="S117" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>135</v>
       </c>
@@ -7463,6 +7820,9 @@
       </c>
       <c r="R118" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="S118" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Ligas/Primera_A_2025.xlsx
+++ b/Ligas/Primera_A_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S121"/>
+  <dimension ref="A1:S128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8574,6 +8574,503 @@
         </is>
       </c>
     </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Everton de Vina</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1339129</v>
+      </c>
+      <c r="G122" t="n">
+        <v>6</v>
+      </c>
+      <c r="H122" t="n">
+        <v>5</v>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>63%</t>
+        </is>
+      </c>
+      <c r="R122" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Union Espanola</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>3</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1339131</v>
+      </c>
+      <c r="G123" t="n">
+        <v>10</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>4</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>3</v>
+      </c>
+      <c r="P123" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="R123" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>D. La Serena</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1339126</v>
+      </c>
+      <c r="G124" t="n">
+        <v>7</v>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>2</v>
+      </c>
+      <c r="P124" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="R124" t="inlineStr">
+        <is>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-07-19</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1339128</v>
+      </c>
+      <c r="G125" t="n">
+        <v>6</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+      <c r="I125" t="n">
+        <v>4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>4</v>
+      </c>
+      <c r="P125" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>46%</t>
+        </is>
+      </c>
+      <c r="R125" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>A. Italiano</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>U. Catolica</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1339130</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2</v>
+      </c>
+      <c r="H126" t="n">
+        <v>5</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3</v>
+      </c>
+      <c r="J126" t="n">
+        <v>5</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>1</v>
+      </c>
+      <c r="P126" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-07-20</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Nublense</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Universidad de Chile</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1339132</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>4</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>2</v>
+      </c>
+      <c r="P127" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>41%</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
+          <t>59%</t>
+        </is>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2</v>
+      </c>
+      <c r="E128" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1339133</v>
+      </c>
+      <c r="G128" t="n">
+        <v>6</v>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>2</v>
+      </c>
+      <c r="P128" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ligas/Primera_A_2025.xlsx
+++ b/Ligas/Primera_A_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U144"/>
+  <dimension ref="A1:Y151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,26 @@
           <t>Posesión Visita ().1</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Local (%)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Posesión Visita (%)</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>fuente_tiempos</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>estado_datos</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +628,10 @@
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -677,6 +701,10 @@
       </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -746,6 +774,10 @@
       </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -815,6 +847,10 @@
       </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -884,6 +920,10 @@
       </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -953,6 +993,10 @@
       </c>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1022,6 +1066,10 @@
       </c>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1091,6 +1139,10 @@
       </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1160,6 +1212,10 @@
       </c>
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1229,6 +1285,10 @@
       </c>
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1298,6 +1358,10 @@
       </c>
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1367,6 +1431,10 @@
       </c>
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1436,6 +1504,10 @@
       </c>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1505,6 +1577,10 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1574,6 +1650,10 @@
       </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1643,6 +1723,10 @@
       </c>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1712,6 +1796,10 @@
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1781,6 +1869,10 @@
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1850,6 +1942,10 @@
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1919,6 +2015,10 @@
       </c>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1988,6 +2088,10 @@
       </c>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2057,6 +2161,10 @@
       </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2126,6 +2234,10 @@
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2195,6 +2307,10 @@
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2264,6 +2380,10 @@
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2333,6 +2453,10 @@
       </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2402,6 +2526,10 @@
       </c>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2471,6 +2599,10 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2540,6 +2672,10 @@
       </c>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2609,6 +2745,10 @@
       </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2678,6 +2818,10 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2747,6 +2891,10 @@
       </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2816,6 +2964,10 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2885,6 +3037,10 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2954,6 +3110,10 @@
       </c>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3023,6 +3183,10 @@
       </c>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3092,6 +3256,10 @@
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3161,6 +3329,10 @@
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3230,6 +3402,10 @@
       </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3299,6 +3475,10 @@
       </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3368,6 +3548,10 @@
       </c>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3437,6 +3621,10 @@
       </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3506,6 +3694,10 @@
       </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3575,6 +3767,10 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3644,6 +3840,10 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3713,6 +3913,10 @@
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3782,6 +3986,10 @@
       </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3851,6 +4059,10 @@
       </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3920,6 +4132,10 @@
       </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3989,6 +4205,10 @@
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4058,6 +4278,10 @@
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4127,6 +4351,10 @@
       </c>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4196,6 +4424,10 @@
       </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4265,6 +4497,10 @@
       </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4334,6 +4570,10 @@
       </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4403,6 +4643,10 @@
       </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4472,6 +4716,10 @@
       </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4541,6 +4789,10 @@
       </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4610,6 +4862,10 @@
       </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4679,6 +4935,10 @@
       </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4748,6 +5008,10 @@
       </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4817,6 +5081,10 @@
       </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4886,6 +5154,10 @@
       </c>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4955,6 +5227,10 @@
       </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5024,6 +5300,10 @@
       </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5093,6 +5373,10 @@
       </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -5162,6 +5446,10 @@
       </c>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5231,6 +5519,10 @@
       </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -5300,6 +5592,10 @@
       </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5369,6 +5665,10 @@
       </c>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5438,6 +5738,10 @@
       </c>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5507,6 +5811,10 @@
       </c>
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5576,6 +5884,10 @@
       </c>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5645,6 +5957,10 @@
       </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5714,6 +6030,10 @@
       </c>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5783,6 +6103,10 @@
       </c>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5852,6 +6176,10 @@
       </c>
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5921,6 +6249,10 @@
       </c>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5990,6 +6322,10 @@
       </c>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -6059,6 +6395,10 @@
       </c>
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -6128,6 +6468,10 @@
       </c>
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -6197,6 +6541,10 @@
       </c>
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -6266,6 +6614,10 @@
       </c>
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -6335,6 +6687,10 @@
       </c>
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -6404,6 +6760,10 @@
       </c>
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6473,6 +6833,10 @@
       </c>
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6542,6 +6906,10 @@
       </c>
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6611,6 +6979,10 @@
       </c>
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6680,6 +7052,10 @@
       </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6749,6 +7125,10 @@
       </c>
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6818,6 +7198,10 @@
       </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6887,6 +7271,10 @@
       </c>
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6956,6 +7344,10 @@
       </c>
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -7025,6 +7417,10 @@
       </c>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -7094,6 +7490,10 @@
       </c>
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -7163,6 +7563,10 @@
       </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -7232,6 +7636,10 @@
       </c>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -7301,6 +7709,10 @@
       </c>
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -7370,6 +7782,10 @@
       </c>
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -7439,6 +7855,10 @@
       </c>
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -7508,6 +7928,10 @@
       </c>
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7577,6 +8001,10 @@
       </c>
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7646,6 +8074,10 @@
       </c>
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7715,6 +8147,10 @@
       </c>
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7784,6 +8220,10 @@
       </c>
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7853,6 +8293,10 @@
       </c>
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7922,6 +8366,10 @@
       </c>
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7991,6 +8439,10 @@
       </c>
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -8060,6 +8512,10 @@
       </c>
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -8129,6 +8585,10 @@
       </c>
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -8198,6 +8658,10 @@
       </c>
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -8267,6 +8731,10 @@
       </c>
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -8336,6 +8804,10 @@
       </c>
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -8405,6 +8877,10 @@
       </c>
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -8474,6 +8950,10 @@
       </c>
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -8543,6 +9023,10 @@
       </c>
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8612,6 +9096,10 @@
       </c>
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8660,13 +9148,13 @@
         <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q119" t="n">
         <v>56</v>
@@ -8681,6 +9169,10 @@
       </c>
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8750,6 +9242,10 @@
       </c>
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8795,16 +9291,16 @@
         <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q121" t="n">
         <v>45</v>
@@ -8819,6 +9315,10 @@
       </c>
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8888,6 +9388,10 @@
       </c>
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8936,13 +9440,13 @@
         <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123" t="n">
         <v>3</v>
       </c>
       <c r="P123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123" t="n">
         <v>46</v>
@@ -8957,6 +9461,10 @@
       </c>
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -9026,6 +9534,10 @@
       </c>
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -9071,16 +9583,16 @@
         <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O125" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125" t="n">
         <v>46</v>
@@ -9095,6 +9607,10 @@
       </c>
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -9143,13 +9659,13 @@
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="n">
         <v>1</v>
       </c>
       <c r="P126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q126" t="n">
         <v>50</v>
@@ -9164,6 +9680,10 @@
       </c>
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -9233,6 +9753,10 @@
       </c>
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -9281,13 +9805,13 @@
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O128" t="n">
         <v>2</v>
       </c>
       <c r="P128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128" t="n">
         <v>52</v>
@@ -9302,6 +9826,10 @@
       </c>
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -9371,6 +9899,10 @@
       </c>
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -9419,13 +9951,13 @@
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O130" t="n">
         <v>0</v>
       </c>
       <c r="P130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q130" t="n">
         <v>70</v>
@@ -9440,6 +9972,10 @@
       </c>
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -9485,16 +10021,16 @@
         <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131" t="n">
         <v>50</v>
@@ -9509,6 +10045,10 @@
       </c>
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -9557,13 +10097,13 @@
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132" t="n">
         <v>1</v>
       </c>
       <c r="P132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q132" t="n">
         <v>57</v>
@@ -9578,6 +10118,10 @@
       </c>
       <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -9647,6 +10191,10 @@
       </c>
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9695,13 +10243,13 @@
         <v>0</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
       </c>
       <c r="P134" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q134" t="n">
         <v>60</v>
@@ -9716,6 +10264,10 @@
       </c>
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9785,6 +10337,10 @@
       </c>
       <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9833,13 +10389,13 @@
         <v>0</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O136" t="n">
         <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q136" t="n">
         <v>30</v>
@@ -9854,6 +10410,10 @@
       </c>
       <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9923,6 +10483,10 @@
       </c>
       <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9992,6 +10556,10 @@
       </c>
       <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -10040,19 +10608,19 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" t="n">
         <v>2</v>
       </c>
       <c r="P139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q139" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R139" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -10061,6 +10629,10 @@
       </c>
       <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -10106,16 +10678,16 @@
         <v>1</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q140" t="n">
         <v>49</v>
@@ -10130,6 +10702,10 @@
       </c>
       <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -10199,6 +10775,10 @@
       </c>
       <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -10247,13 +10827,13 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O142" t="n">
         <v>2</v>
       </c>
       <c r="P142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q142" t="n">
         <v>67</v>
@@ -10268,6 +10848,10 @@
       </c>
       <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -10313,22 +10897,22 @@
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
       </c>
       <c r="O143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P143" t="n">
         <v>0</v>
       </c>
       <c r="Q143" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="R143" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -10337,6 +10921,10 @@
       </c>
       <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -10364,7 +10952,7 @@
         <v>1339142</v>
       </c>
       <c r="G144" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H144" t="n">
         <v>2</v>
@@ -10385,19 +10973,19 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
       </c>
       <c r="P144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q144" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R144" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -10406,6 +10994,517 @@
       </c>
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2025-08-08</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Palestino</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Deportes Iquique</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1339156</v>
+      </c>
+      <c r="G145" t="n">
+        <v>7</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>2</v>
+      </c>
+      <c r="P145" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>70</v>
+      </c>
+      <c r="R145" t="n">
+        <v>30</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Huachipato</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Union La Calera</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1339157</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1</v>
+      </c>
+      <c r="P146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>38</v>
+      </c>
+      <c r="R146" t="n">
+        <v>62</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Universidad de Chile</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Union Espanola</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>4</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1339150</v>
+      </c>
+      <c r="G147" t="n">
+        <v>4</v>
+      </c>
+      <c r="H147" t="n">
+        <v>2</v>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="n">
+        <v>1</v>
+      </c>
+      <c r="O147" t="n">
+        <v>3</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>53</v>
+      </c>
+      <c r="R147" t="n">
+        <v>47</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-08-09</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>D. La Serena</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>O'Higgins</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>3</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1339153</v>
+      </c>
+      <c r="G148" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>2</v>
+      </c>
+      <c r="P148" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>35</v>
+      </c>
+      <c r="R148" t="n">
+        <v>65</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Everton de Vina</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Colo Colo</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1339154</v>
+      </c>
+      <c r="G149" t="n">
+        <v>3</v>
+      </c>
+      <c r="H149" t="n">
+        <v>7</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>1</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>42</v>
+      </c>
+      <c r="R149" t="n">
+        <v>58</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-08-10</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Cobresal</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Coquimbo Unido</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1339152</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5</v>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+      <c r="I150" t="n">
+        <v>4</v>
+      </c>
+      <c r="J150" t="n">
+        <v>5</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="n">
+        <v>1</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>69</v>
+      </c>
+      <c r="R150" t="n">
+        <v>31</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-08-11</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Deportes Limache</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>A. Italiano</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>4</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1339155</v>
+      </c>
+      <c r="G151" t="n">
+        <v>3</v>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+      <c r="I151" t="n">
+        <v>4</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>3</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>47</v>
+      </c>
+      <c r="R151" t="n">
+        <v>53</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
